--- a/Study 3/Shocks/GCAM/CP_EI - 2020.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2020.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.006965470074085038</v>
+        <v>0.006965470074085039</v>
       </c>
     </row>
     <row r="3">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.001960378118399363</v>
+        <v>0.001960378118399364</v>
       </c>
     </row>
     <row r="15">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.06201593238306657</v>
+        <v>0.06201593238306658</v>
       </c>
     </row>
     <row r="23">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0004891600071320329</v>
+        <v>0.000489160007132033</v>
       </c>
     </row>
     <row r="27">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5.709833185385316e-06</v>
+        <v>5.709833185385317e-06</v>
       </c>
     </row>
     <row r="31">
